--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.24868975033842</v>
+        <v>7.02243</v>
       </c>
       <c r="H2">
-        <v>6.24868975033842</v>
+        <v>21.06729</v>
       </c>
       <c r="I2">
-        <v>0.1129263232013984</v>
+        <v>0.09918483354594591</v>
       </c>
       <c r="J2">
-        <v>0.1129263232013984</v>
+        <v>0.0991848335459459</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>11.9019950194492</v>
+        <v>0.1166653333333333</v>
       </c>
       <c r="N2">
-        <v>11.9019950194492</v>
+        <v>0.349996</v>
       </c>
       <c r="O2">
-        <v>0.3925445135970244</v>
+        <v>0.003627699309917676</v>
       </c>
       <c r="P2">
-        <v>0.3925445135970244</v>
+        <v>0.003627699309917676</v>
       </c>
       <c r="Q2">
-        <v>74.37187428661115</v>
+        <v>0.8192741367599999</v>
       </c>
       <c r="R2">
-        <v>74.37187428661115</v>
+        <v>7.373467230839999</v>
       </c>
       <c r="S2">
-        <v>0.04432860861339331</v>
+        <v>0.0003598127522089276</v>
       </c>
       <c r="T2">
-        <v>0.04432860861339331</v>
+        <v>0.0003598127522089276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.24868975033842</v>
+        <v>7.02243</v>
       </c>
       <c r="H3">
-        <v>6.24868975033842</v>
+        <v>21.06729</v>
       </c>
       <c r="I3">
-        <v>0.1129263232013984</v>
+        <v>0.09918483354594591</v>
       </c>
       <c r="J3">
-        <v>0.1129263232013984</v>
+        <v>0.0991848335459459</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.5592571223945</v>
+        <v>12.00209833333333</v>
       </c>
       <c r="N3">
-        <v>13.5592571223945</v>
+        <v>36.00629499999999</v>
       </c>
       <c r="O3">
-        <v>0.4472033455861467</v>
+        <v>0.3732042981182421</v>
       </c>
       <c r="P3">
-        <v>0.4472033455861467</v>
+        <v>0.3732042981182421</v>
       </c>
       <c r="Q3">
-        <v>84.72759100290973</v>
+        <v>84.28389539894998</v>
       </c>
       <c r="R3">
-        <v>84.72759100290973</v>
+        <v>758.5550585905498</v>
       </c>
       <c r="S3">
-        <v>0.05050102954040786</v>
+        <v>0.03701620618748942</v>
       </c>
       <c r="T3">
-        <v>0.05050102954040786</v>
+        <v>0.03701620618748942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.24868975033842</v>
+        <v>7.02243</v>
       </c>
       <c r="H4">
-        <v>6.24868975033842</v>
+        <v>21.06729</v>
       </c>
       <c r="I4">
-        <v>0.1129263232013984</v>
+        <v>0.09918483354594591</v>
       </c>
       <c r="J4">
-        <v>0.1129263232013984</v>
+        <v>0.0991848335459459</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.8588634302401</v>
+        <v>14.050981</v>
       </c>
       <c r="N4">
-        <v>4.8588634302401</v>
+        <v>42.15294300000001</v>
       </c>
       <c r="O4">
-        <v>0.1602521408168289</v>
+        <v>0.4369141425390552</v>
       </c>
       <c r="P4">
-        <v>0.1602521408168289</v>
+        <v>0.4369141425390553</v>
       </c>
       <c r="Q4">
-        <v>30.36153011483549</v>
+        <v>98.67203050383002</v>
       </c>
       <c r="R4">
-        <v>30.36153011483549</v>
+        <v>888.0482745344701</v>
       </c>
       <c r="S4">
-        <v>0.01809668504759723</v>
+        <v>0.04333525650160588</v>
       </c>
       <c r="T4">
-        <v>0.01809668504759723</v>
+        <v>0.04333525650160588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.6518201792481</v>
+        <v>7.02243</v>
       </c>
       <c r="H5">
-        <v>37.6518201792481</v>
+        <v>21.06729</v>
       </c>
       <c r="I5">
-        <v>0.6804437065310258</v>
+        <v>0.09918483354594591</v>
       </c>
       <c r="J5">
-        <v>0.6804437065310258</v>
+        <v>0.0991848335459459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9019950194492</v>
+        <v>5.989848333333334</v>
       </c>
       <c r="N5">
-        <v>11.9019950194492</v>
+        <v>17.969545</v>
       </c>
       <c r="O5">
-        <v>0.3925445135970244</v>
+        <v>0.186253860032785</v>
       </c>
       <c r="P5">
-        <v>0.3925445135970244</v>
+        <v>0.186253860032785</v>
       </c>
       <c r="Q5">
-        <v>448.1317762466078</v>
+        <v>42.06329063145</v>
       </c>
       <c r="R5">
-        <v>448.1317762466078</v>
+        <v>378.56961568305</v>
       </c>
       <c r="S5">
-        <v>0.267104443810378</v>
+        <v>0.01847355810464169</v>
       </c>
       <c r="T5">
-        <v>0.267104443810378</v>
+        <v>0.01847355810464169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.6518201792481</v>
+        <v>37.70032666666666</v>
       </c>
       <c r="H6">
-        <v>37.6518201792481</v>
+        <v>113.10098</v>
       </c>
       <c r="I6">
-        <v>0.6804437065310258</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="J6">
-        <v>0.6804437065310258</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>13.5592571223945</v>
+        <v>0.1166653333333333</v>
       </c>
       <c r="N6">
-        <v>13.5592571223945</v>
+        <v>0.349996</v>
       </c>
       <c r="O6">
-        <v>0.4472033455861467</v>
+        <v>0.003627699309917676</v>
       </c>
       <c r="P6">
-        <v>0.4472033455861467</v>
+        <v>0.003627699309917676</v>
       </c>
       <c r="Q6">
-        <v>510.5307109365867</v>
+        <v>4.398321177342222</v>
       </c>
       <c r="R6">
-        <v>510.5307109365867</v>
+        <v>39.58489059607999</v>
       </c>
       <c r="S6">
-        <v>0.304296702043713</v>
+        <v>0.001931675829749667</v>
       </c>
       <c r="T6">
-        <v>0.304296702043713</v>
+        <v>0.001931675829749667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.6518201792481</v>
+        <v>37.70032666666666</v>
       </c>
       <c r="H7">
-        <v>37.6518201792481</v>
+        <v>113.10098</v>
       </c>
       <c r="I7">
-        <v>0.6804437065310258</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="J7">
-        <v>0.6804437065310258</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.8588634302401</v>
+        <v>12.00209833333333</v>
       </c>
       <c r="N7">
-        <v>4.8588634302401</v>
+        <v>36.00629499999999</v>
       </c>
       <c r="O7">
-        <v>0.1602521408168289</v>
+        <v>0.3732042981182421</v>
       </c>
       <c r="P7">
-        <v>0.1602521408168289</v>
+        <v>0.3732042981182421</v>
       </c>
       <c r="Q7">
-        <v>182.9450521509248</v>
+        <v>452.4830278521221</v>
       </c>
       <c r="R7">
-        <v>182.9450521509248</v>
+        <v>4072.347250669099</v>
       </c>
       <c r="S7">
-        <v>0.1090425606769349</v>
+        <v>0.1987236704714805</v>
       </c>
       <c r="T7">
-        <v>0.1090425606769349</v>
+        <v>0.1987236704714805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.33408603366856</v>
+        <v>37.70032666666666</v>
       </c>
       <c r="H8">
-        <v>4.33408603366856</v>
+        <v>113.10098</v>
       </c>
       <c r="I8">
-        <v>0.07832560421074125</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="J8">
-        <v>0.07832560421074125</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.9019950194492</v>
+        <v>14.050981</v>
       </c>
       <c r="N8">
-        <v>11.9019950194492</v>
+        <v>42.15294300000001</v>
       </c>
       <c r="O8">
-        <v>0.3925445135970244</v>
+        <v>0.4369141425390552</v>
       </c>
       <c r="P8">
-        <v>0.3925445135970244</v>
+        <v>0.4369141425390553</v>
       </c>
       <c r="Q8">
-        <v>51.58427038658754</v>
+        <v>529.7265736871267</v>
       </c>
       <c r="R8">
-        <v>51.58427038658754</v>
+        <v>4767.53916318414</v>
       </c>
       <c r="S8">
-        <v>0.03074628620709847</v>
+        <v>0.2326478621067539</v>
       </c>
       <c r="T8">
-        <v>0.03074628620709847</v>
+        <v>0.2326478621067539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.33408603366856</v>
+        <v>37.70032666666666</v>
       </c>
       <c r="H9">
-        <v>4.33408603366856</v>
+        <v>113.10098</v>
       </c>
       <c r="I9">
-        <v>0.07832560421074125</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="J9">
-        <v>0.07832560421074125</v>
+        <v>0.5324795868468776</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.5592571223945</v>
+        <v>5.989848333333334</v>
       </c>
       <c r="N9">
-        <v>13.5592571223945</v>
+        <v>17.969545</v>
       </c>
       <c r="O9">
-        <v>0.4472033455861467</v>
+        <v>0.186253860032785</v>
       </c>
       <c r="P9">
-        <v>0.4472033455861467</v>
+        <v>0.186253860032785</v>
       </c>
       <c r="Q9">
-        <v>58.76698692109095</v>
+        <v>225.8192388504555</v>
       </c>
       <c r="R9">
-        <v>58.76698692109095</v>
+        <v>2032.3731496541</v>
       </c>
       <c r="S9">
-        <v>0.03502747224809987</v>
+        <v>0.09917637843889354</v>
       </c>
       <c r="T9">
-        <v>0.03502747224809987</v>
+        <v>0.09917637843889354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.33408603366856</v>
+        <v>4.606340666666667</v>
       </c>
       <c r="H10">
-        <v>4.33408603366856</v>
+        <v>13.819022</v>
       </c>
       <c r="I10">
-        <v>0.07832560421074125</v>
+        <v>0.06505997671450693</v>
       </c>
       <c r="J10">
-        <v>0.07832560421074125</v>
+        <v>0.06505997671450692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.8588634302401</v>
+        <v>0.1166653333333333</v>
       </c>
       <c r="N10">
-        <v>4.8588634302401</v>
+        <v>0.349996</v>
       </c>
       <c r="O10">
-        <v>0.1602521408168289</v>
+        <v>0.003627699309917676</v>
       </c>
       <c r="P10">
-        <v>0.1602521408168289</v>
+        <v>0.003627699309917676</v>
       </c>
       <c r="Q10">
-        <v>21.05873213250653</v>
+        <v>0.5374002693235556</v>
       </c>
       <c r="R10">
-        <v>21.05873213250653</v>
+        <v>4.836602423912</v>
       </c>
       <c r="S10">
-        <v>0.01255184575554291</v>
+        <v>0.0002360180326304769</v>
       </c>
       <c r="T10">
-        <v>0.01255184575554291</v>
+        <v>0.0002360180326304769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.09962172126296</v>
+        <v>4.606340666666667</v>
       </c>
       <c r="H11">
-        <v>7.09962172126296</v>
+        <v>13.819022</v>
       </c>
       <c r="I11">
-        <v>0.1283043660568343</v>
+        <v>0.06505997671450693</v>
       </c>
       <c r="J11">
-        <v>0.1283043660568343</v>
+        <v>0.06505997671450692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9019950194492</v>
+        <v>12.00209833333333</v>
       </c>
       <c r="N11">
-        <v>11.9019950194492</v>
+        <v>36.00629499999999</v>
       </c>
       <c r="O11">
-        <v>0.3925445135970244</v>
+        <v>0.3732042981182421</v>
       </c>
       <c r="P11">
-        <v>0.3925445135970244</v>
+        <v>0.3732042981182421</v>
       </c>
       <c r="Q11">
-        <v>84.49966236644512</v>
+        <v>55.28575363816555</v>
       </c>
       <c r="R11">
-        <v>84.49966236644512</v>
+        <v>497.57178274349</v>
       </c>
       <c r="S11">
-        <v>0.05036517496615461</v>
+        <v>0.02428066294532673</v>
       </c>
       <c r="T11">
-        <v>0.05036517496615461</v>
+        <v>0.02428066294532673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.09962172126296</v>
+        <v>4.606340666666667</v>
       </c>
       <c r="H12">
-        <v>7.09962172126296</v>
+        <v>13.819022</v>
       </c>
       <c r="I12">
-        <v>0.1283043660568343</v>
+        <v>0.06505997671450693</v>
       </c>
       <c r="J12">
-        <v>0.1283043660568343</v>
+        <v>0.06505997671450692</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.5592571223945</v>
+        <v>14.050981</v>
       </c>
       <c r="N12">
-        <v>13.5592571223945</v>
+        <v>42.15294300000001</v>
       </c>
       <c r="O12">
-        <v>0.4472033455861467</v>
+        <v>0.4369141425390552</v>
       </c>
       <c r="P12">
-        <v>0.4472033455861467</v>
+        <v>0.4369141425390553</v>
       </c>
       <c r="Q12">
-        <v>96.2655963903415</v>
+        <v>64.72360518686068</v>
       </c>
       <c r="R12">
-        <v>96.2655963903415</v>
+        <v>582.5124466817462</v>
       </c>
       <c r="S12">
-        <v>0.05737814175392596</v>
+        <v>0.02842562393982969</v>
       </c>
       <c r="T12">
-        <v>0.05737814175392596</v>
+        <v>0.02842562393982969</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.09962172126296</v>
+        <v>4.606340666666667</v>
       </c>
       <c r="H13">
-        <v>7.09962172126296</v>
+        <v>13.819022</v>
       </c>
       <c r="I13">
-        <v>0.1283043660568343</v>
+        <v>0.06505997671450693</v>
       </c>
       <c r="J13">
-        <v>0.1283043660568343</v>
+        <v>0.06505997671450692</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.8588634302401</v>
+        <v>5.989848333333334</v>
       </c>
       <c r="N13">
-        <v>4.8588634302401</v>
+        <v>17.969545</v>
       </c>
       <c r="O13">
-        <v>0.1602521408168289</v>
+        <v>0.186253860032785</v>
       </c>
       <c r="P13">
-        <v>0.1602521408168289</v>
+        <v>0.186253860032785</v>
       </c>
       <c r="Q13">
-        <v>34.49609234998287</v>
+        <v>27.59128196499889</v>
       </c>
       <c r="R13">
-        <v>34.49609234998287</v>
+        <v>248.32153768499</v>
       </c>
       <c r="S13">
-        <v>0.02056104933675378</v>
+        <v>0.01211767179672003</v>
       </c>
       <c r="T13">
-        <v>0.02056104933675378</v>
+        <v>0.01211767179672003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>21.47235233333333</v>
+      </c>
+      <c r="H14">
+        <v>64.417057</v>
+      </c>
+      <c r="I14">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="J14">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1166653333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.349996</v>
+      </c>
+      <c r="O14">
+        <v>0.003627699309917676</v>
+      </c>
+      <c r="P14">
+        <v>0.003627699309917676</v>
+      </c>
+      <c r="Q14">
+        <v>2.505079142419111</v>
+      </c>
+      <c r="R14">
+        <v>22.545712281772</v>
+      </c>
+      <c r="S14">
+        <v>0.001100192695328605</v>
+      </c>
+      <c r="T14">
+        <v>0.001100192695328605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>21.47235233333333</v>
+      </c>
+      <c r="H15">
+        <v>64.417057</v>
+      </c>
+      <c r="I15">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="J15">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.00209833333333</v>
+      </c>
+      <c r="N15">
+        <v>36.00629499999999</v>
+      </c>
+      <c r="O15">
+        <v>0.3732042981182421</v>
+      </c>
+      <c r="P15">
+        <v>0.3732042981182421</v>
+      </c>
+      <c r="Q15">
+        <v>257.7132841526461</v>
+      </c>
+      <c r="R15">
+        <v>2319.419557373815</v>
+      </c>
+      <c r="S15">
+        <v>0.1131837585139455</v>
+      </c>
+      <c r="T15">
+        <v>0.1131837585139455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>21.47235233333333</v>
+      </c>
+      <c r="H16">
+        <v>64.417057</v>
+      </c>
+      <c r="I16">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="J16">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.050981</v>
+      </c>
+      <c r="N16">
+        <v>42.15294300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.4369141425390552</v>
+      </c>
+      <c r="P16">
+        <v>0.4369141425390553</v>
+      </c>
+      <c r="Q16">
+        <v>301.7076146609724</v>
+      </c>
+      <c r="R16">
+        <v>2715.368531948751</v>
+      </c>
+      <c r="S16">
+        <v>0.1325053999908658</v>
+      </c>
+      <c r="T16">
+        <v>0.1325053999908657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>21.47235233333333</v>
+      </c>
+      <c r="H17">
+        <v>64.417057</v>
+      </c>
+      <c r="I17">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="J17">
+        <v>0.3032756028926696</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.989848333333334</v>
+      </c>
+      <c r="N17">
+        <v>17.969545</v>
+      </c>
+      <c r="O17">
+        <v>0.186253860032785</v>
+      </c>
+      <c r="P17">
+        <v>0.186253860032785</v>
+      </c>
+      <c r="Q17">
+        <v>128.6161338365628</v>
+      </c>
+      <c r="R17">
+        <v>1157.545204529065</v>
+      </c>
+      <c r="S17">
+        <v>0.05648625169252979</v>
+      </c>
+      <c r="T17">
+        <v>0.05648625169252978</v>
       </c>
     </row>
   </sheetData>
